--- a/_site/Data/ModuleKey.xlsx
+++ b/_site/Data/ModuleKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF7341F2-F237-8E42-BDF4-6DA35F889217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0C97B-A662-EE4C-B68E-B3E03BC388D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34760" yWindow="1560" windowWidth="27640" windowHeight="16540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
+    <workbookView xWindow="39560" yWindow="3720" windowWidth="27640" windowHeight="16540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Module</t>
   </si>
@@ -33,9 +33,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>Jump to Module</t>
-  </si>
-  <si>
     <t>Family Conflict</t>
   </si>
   <si>
@@ -43,6 +40,177 @@
   </si>
   <si>
     <t>Frequency of certain types of interactions within family; conflict, affection, support, as well as what helps</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>Social Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Insecurity </t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workforce Module </t>
+  </si>
+  <si>
+    <t>Healthcare Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Reopeing </t>
+  </si>
+  <si>
+    <t>Remote Work</t>
+  </si>
+  <si>
+    <t>Diapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday Plans </t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>Frequency of certain family routines: bedtime, mealtime, wake up, family time. Pre-pandemic and currently.</t>
+  </si>
+  <si>
+    <t>Family Routine</t>
+  </si>
+  <si>
+    <t>Access to diapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-covid and current remote work </t>
+  </si>
+  <si>
+    <t>Learning mode, who is supporting learning, hours spent on certain educational activities; both pre-K and K-12</t>
+  </si>
+  <si>
+    <t>Explores experiences of racism and discrimination; 2 sets of same questions, one on pre-pandemic experiences, one since the pandemic</t>
+  </si>
+  <si>
+    <t>Has anyone in family gone without healthcare, delayed getting care, gone to work or school while sick</t>
+  </si>
+  <si>
+    <t>Workplace safety practices during pandemic, who does household labor, has employment changed</t>
+  </si>
+  <si>
+    <t>Asks about unemployment benefits related to COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asks participants if they are supporting people outside the immediate family </t>
+  </si>
+  <si>
+    <t>Other Hardship</t>
+  </si>
+  <si>
+    <t>Difficulty paying for basic needs: food, housing, utlities, childcare, healthcare, emotional/social support. Concerns about and experiences with eviction and foreclosure.</t>
+  </si>
+  <si>
+    <t>USDA questions, includes frequency of hunger, insufficient food for family</t>
+  </si>
+  <si>
+    <t>Types of social supports experiencing and frequency; pre-pandemic and current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday plans, including travel, for 2020 season </t>
+  </si>
+  <si>
+    <t>Missed vaccine at well-check visit and why; asks if they will get a COVID-19 vaccine if offered</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/socialsupport</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/materialhardship</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/employmentmodule</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/foodinsecuritymodule</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/unemploymentmodule</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/workforcemodule</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/healthcaremodule</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/vaccinesmodule</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/riser</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/remotework</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/diapersmodule</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/familyroutinesmodule</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/holidayplansmodule</t>
+  </si>
+  <si>
+    <t>Employment/Income</t>
+  </si>
+  <si>
+    <t>School Mobility</t>
+  </si>
+  <si>
+    <t>Since school began in fall, have families changed their child/ren's school, following a residential move or other reason</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/schoolmobilitymodule</t>
+  </si>
+  <si>
+    <t>9, 11, 16, 29</t>
+  </si>
+  <si>
+    <t>15, 19, 21, 23, 35</t>
+  </si>
+  <si>
+    <t>37, 39, 41</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41</t>
+  </si>
+  <si>
+    <t>35, 39</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 35, 39</t>
+  </si>
+  <si>
+    <t>33, 37, 41</t>
+  </si>
+  <si>
+    <t>33, 35, 41</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 29, 31, 33, 35, 37, 39</t>
+  </si>
+  <si>
+    <t>27, 35, 37</t>
+  </si>
+  <si>
+    <t>Go to Module</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/schoolreopeningmodule</t>
   </si>
 </sst>
 </file>
@@ -74,11 +242,48 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -87,11 +292,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -408,44 +630,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DFD680-50E8-144D-8190-32B641366355}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6DE5AEF2-EBF8-5347-A689-33E55E05D783}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6D053D01-6BBB-4947-8822-99B194DB1766}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D791CFCE-6F6E-9044-97E3-E8B61025A275}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{DE7A3E49-3423-C948-96C8-9D5CD83A8FCD}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{4CB2A8A2-6B47-D245-BC8F-031CDD89C861}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{E5F8CB27-28E6-834F-96AA-F7401DD51856}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{58985920-5A31-EA42-A7F7-3B0556956FB3}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{78A183EA-3276-324C-A11F-E89F53E430CD}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{F9C6EDB6-1649-6A45-993A-EE21FDB1CD41}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{0A39216B-1931-8546-AD2C-B34374A30B4E}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{2C900A51-3FBD-3D49-8EDF-CE74FAC4DA4E}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{1E03AC8D-B0E5-384E-944E-430CEFF96620}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{0DDF0C52-6255-8F4B-A7E2-C33A3DC8A8F7}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{5852DC38-4587-B34A-BA72-EF448D020627}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{DCF91A37-85A5-CE44-965C-08DD13301896}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{052E037F-B36A-9149-8AE8-A6AC8A2A7356}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/Data/ModuleKey.xlsx
+++ b/_site/Data/ModuleKey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0C97B-A662-EE4C-B68E-B3E03BC388D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE4EE5A-62C0-264C-AC0D-E3553904E9D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39560" yWindow="3720" windowWidth="27640" windowHeight="16540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Module</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>https://r3questionbank.netlify.app/schoolreopeningmodule</t>
+  </si>
+  <si>
+    <t>27. 37</t>
+  </si>
+  <si>
+    <t>Grandparents</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/grandparentsmodule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What support are grandparents offering </t>
   </si>
 </sst>
 </file>
@@ -292,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -315,6 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -630,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DFD680-50E8-144D-8190-32B641366355}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,199 +700,213 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>33</v>
       </c>
     </row>
@@ -887,20 +914,21 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6DE5AEF2-EBF8-5347-A689-33E55E05D783}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{6D053D01-6BBB-4947-8822-99B194DB1766}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D791CFCE-6F6E-9044-97E3-E8B61025A275}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{DE7A3E49-3423-C948-96C8-9D5CD83A8FCD}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{4CB2A8A2-6B47-D245-BC8F-031CDD89C861}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{E5F8CB27-28E6-834F-96AA-F7401DD51856}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{58985920-5A31-EA42-A7F7-3B0556956FB3}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{78A183EA-3276-324C-A11F-E89F53E430CD}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{F9C6EDB6-1649-6A45-993A-EE21FDB1CD41}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{0A39216B-1931-8546-AD2C-B34374A30B4E}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{2C900A51-3FBD-3D49-8EDF-CE74FAC4DA4E}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{1E03AC8D-B0E5-384E-944E-430CEFF96620}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{0DDF0C52-6255-8F4B-A7E2-C33A3DC8A8F7}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{5852DC38-4587-B34A-BA72-EF448D020627}"/>
-    <hyperlink ref="C9" r:id="rId15" xr:uid="{DCF91A37-85A5-CE44-965C-08DD13301896}"/>
-    <hyperlink ref="C14" r:id="rId16" xr:uid="{052E037F-B36A-9149-8AE8-A6AC8A2A7356}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{D791CFCE-6F6E-9044-97E3-E8B61025A275}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{DE7A3E49-3423-C948-96C8-9D5CD83A8FCD}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{4CB2A8A2-6B47-D245-BC8F-031CDD89C861}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{E5F8CB27-28E6-834F-96AA-F7401DD51856}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{58985920-5A31-EA42-A7F7-3B0556956FB3}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{78A183EA-3276-324C-A11F-E89F53E430CD}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{F9C6EDB6-1649-6A45-993A-EE21FDB1CD41}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{0A39216B-1931-8546-AD2C-B34374A30B4E}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{2C900A51-3FBD-3D49-8EDF-CE74FAC4DA4E}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{1E03AC8D-B0E5-384E-944E-430CEFF96620}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{0DDF0C52-6255-8F4B-A7E2-C33A3DC8A8F7}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{5852DC38-4587-B34A-BA72-EF448D020627}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{DCF91A37-85A5-CE44-965C-08DD13301896}"/>
+    <hyperlink ref="C15" r:id="rId16" xr:uid="{052E037F-B36A-9149-8AE8-A6AC8A2A7356}"/>
+    <hyperlink ref="C4" r:id="rId17" xr:uid="{59534D3C-B71E-7145-B7F1-BD695B0E307A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/Data/ModuleKey.xlsx
+++ b/_site/Data/ModuleKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE4EE5A-62C0-264C-AC0D-E3553904E9D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB8431F-ED71-0540-875C-442D28864F90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39560" yWindow="3720" windowWidth="27640" windowHeight="16540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
+    <workbookView xWindow="45980" yWindow="-3900" windowWidth="27640" windowHeight="16540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Module</t>
   </si>
@@ -180,30 +180,15 @@
     <t>9, 11, 16, 29</t>
   </si>
   <si>
-    <t>15, 19, 21, 23, 35</t>
-  </si>
-  <si>
     <t>37, 39, 41</t>
   </si>
   <si>
     <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41</t>
   </si>
   <si>
-    <t>35, 39</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 35, 39</t>
-  </si>
-  <si>
     <t>33, 37, 41</t>
   </si>
   <si>
-    <t>33, 35, 41</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 29, 31, 33, 35, 37, 39</t>
-  </si>
-  <si>
     <t>27, 35, 37</t>
   </si>
   <si>
@@ -223,6 +208,30 @@
   </si>
   <si>
     <t xml:space="preserve">What support are grandparents offering </t>
+  </si>
+  <si>
+    <t>Stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you receive stimulus?; How did you spend stimulus? </t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/stimulusmodule</t>
+  </si>
+  <si>
+    <t>15, 19, 21, 23, 35, 43</t>
+  </si>
+  <si>
+    <t>35, 39, 43</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 35, 39, 43</t>
+  </si>
+  <si>
+    <t>33, 35, 41, 43</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 43</t>
   </si>
 </sst>
 </file>
@@ -643,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DFD680-50E8-144D-8190-32B641366355}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -697,21 +706,21 @@
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -725,7 +734,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -739,7 +748,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -753,7 +762,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -767,7 +776,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -781,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -795,7 +804,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -809,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -823,7 +832,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -837,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -848,7 +857,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2">
         <v>23</v>
@@ -865,7 +874,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -908,6 +917,20 @@
       </c>
       <c r="D18" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -929,6 +952,7 @@
     <hyperlink ref="C10" r:id="rId15" xr:uid="{DCF91A37-85A5-CE44-965C-08DD13301896}"/>
     <hyperlink ref="C15" r:id="rId16" xr:uid="{052E037F-B36A-9149-8AE8-A6AC8A2A7356}"/>
     <hyperlink ref="C4" r:id="rId17" xr:uid="{59534D3C-B71E-7145-B7F1-BD695B0E307A}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{70991444-228F-2848-ACFD-EA6E02CD8D5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/Data/ModuleKey.xlsx
+++ b/_site/Data/ModuleKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB8431F-ED71-0540-875C-442D28864F90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF81366B-CD35-FD4D-85BE-9C3C848C9DEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45980" yWindow="-3900" windowWidth="27640" windowHeight="16540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
+    <workbookView xWindow="7640" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>Module</t>
   </si>
@@ -54,18 +54,9 @@
     <t>Unemployment</t>
   </si>
   <si>
-    <t xml:space="preserve">Workforce Module </t>
-  </si>
-  <si>
-    <t>Healthcare Module</t>
-  </si>
-  <si>
     <t xml:space="preserve">RISER </t>
   </si>
   <si>
-    <t xml:space="preserve">School Reopeing </t>
-  </si>
-  <si>
     <t>Remote Work</t>
   </si>
   <si>
@@ -75,15 +66,9 @@
     <t xml:space="preserve">Holiday Plans </t>
   </si>
   <si>
-    <t>Vaccine</t>
-  </si>
-  <si>
     <t>Frequency of certain family routines: bedtime, mealtime, wake up, family time. Pre-pandemic and currently.</t>
   </si>
   <si>
-    <t>Family Routine</t>
-  </si>
-  <si>
     <t>Access to diapers</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t xml:space="preserve">Asks participants if they are supporting people outside the immediate family </t>
   </si>
   <si>
-    <t>Other Hardship</t>
-  </si>
-  <si>
     <t>Difficulty paying for basic needs: food, housing, utlities, childcare, healthcare, emotional/social support. Concerns about and experiences with eviction and foreclosure.</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>https://r3questionbank.netlify.app/holidayplansmodule</t>
   </si>
   <si>
-    <t>Employment/Income</t>
-  </si>
-  <si>
     <t>School Mobility</t>
   </si>
   <si>
@@ -177,18 +156,6 @@
     <t>https://r3questionbank.netlify.app/schoolmobilitymodule</t>
   </si>
   <si>
-    <t>9, 11, 16, 29</t>
-  </si>
-  <si>
-    <t>37, 39, 41</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41</t>
-  </si>
-  <si>
-    <t>33, 37, 41</t>
-  </si>
-  <si>
     <t>27, 35, 37</t>
   </si>
   <si>
@@ -219,26 +186,149 @@
     <t>https://r3questionbank.netlify.app/stimulusmodule</t>
   </si>
   <si>
-    <t>15, 19, 21, 23, 35, 43</t>
-  </si>
-  <si>
-    <t>35, 39, 43</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 35, 39, 43</t>
-  </si>
-  <si>
-    <t>33, 35, 41, 43</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 43</t>
+    <t>9, 11, 16, 29, 55</t>
+  </si>
+  <si>
+    <t>Other Hardships</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Workforce</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Vaccines</t>
+  </si>
+  <si>
+    <t>School Reopening Fall 2020</t>
+  </si>
+  <si>
+    <t>School Reopening Spring 2021</t>
+  </si>
+  <si>
+    <t>Child Social Interactions</t>
+  </si>
+  <si>
+    <t>Child Tax Credit</t>
+  </si>
+  <si>
+    <t>Debt and Overdue Bills</t>
+  </si>
+  <si>
+    <t>Child interactions with other adults and children</t>
+  </si>
+  <si>
+    <t>Use of child tax credit</t>
+  </si>
+  <si>
+    <t>Sources of debt</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/childsocialinteractions</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/childtaxcredit</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/debtandoverduebills</t>
+  </si>
+  <si>
+    <t>Family Routines</t>
+  </si>
+  <si>
+    <t>Pregnancy and Postpartum</t>
+  </si>
+  <si>
+    <t>Pregnancy and postpartum during the pandemic</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/pregnancyandpost</t>
+  </si>
+  <si>
+    <t>Remote Learning</t>
+  </si>
+  <si>
+    <t>remote education during the pandemic</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/remotelearning</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/schoolreopeningspring2021</t>
+  </si>
+  <si>
+    <t>55, 59</t>
+  </si>
+  <si>
+    <t>53, 55, 57, 61</t>
+  </si>
+  <si>
+    <t>57, 59</t>
+  </si>
+  <si>
+    <t>Economic stability</t>
+  </si>
+  <si>
+    <t>Feelings regarding housing, employment, work schedule, and childcare</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/economicstability</t>
+  </si>
+  <si>
+    <t>35, 39, 43, 47, 51, 55, 59</t>
+  </si>
+  <si>
+    <t>25, 45, 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61 </t>
+  </si>
+  <si>
+    <t>25, 27, 31, 35, 39, 47, 51, 55, 59</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61</t>
+  </si>
+  <si>
+    <t>33, 37, 39</t>
+  </si>
+  <si>
+    <t>25, 33, 37, 41, 45, 49, 53, 57</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59</t>
+  </si>
+  <si>
+    <t>21, 23</t>
+  </si>
+  <si>
+    <t>51, 61</t>
+  </si>
+  <si>
+    <t>15, 19, 21, 23, 35, 43, 53, 55, 59</t>
+  </si>
+  <si>
+    <t>43, 45, 51, 57</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59</t>
+  </si>
+  <si>
+    <t>33, 35, 41, 43, 45, 49, 53, 57, 61</t>
+  </si>
+  <si>
+    <t>3 to 21, 23, 25, 27, 33, 37, 45, 47, 49, 53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,16 +344,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -308,18 +416,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -336,7 +456,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -652,307 +784,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DFD680-50E8-144D-8190-32B641366355}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D8" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D25" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43</v>
+      <c r="D26" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+    <sortCondition ref="A5:A26"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6DE5AEF2-EBF8-5347-A689-33E55E05D783}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{6D053D01-6BBB-4947-8822-99B194DB1766}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{D791CFCE-6F6E-9044-97E3-E8B61025A275}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{DE7A3E49-3423-C948-96C8-9D5CD83A8FCD}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{6DE5AEF2-EBF8-5347-A689-33E55E05D783}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{6D053D01-6BBB-4947-8822-99B194DB1766}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{D791CFCE-6F6E-9044-97E3-E8B61025A275}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{DE7A3E49-3423-C948-96C8-9D5CD83A8FCD}"/>
     <hyperlink ref="C7" r:id="rId5" xr:uid="{4CB2A8A2-6B47-D245-BC8F-031CDD89C861}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{E5F8CB27-28E6-834F-96AA-F7401DD51856}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{58985920-5A31-EA42-A7F7-3B0556956FB3}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{78A183EA-3276-324C-A11F-E89F53E430CD}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{F9C6EDB6-1649-6A45-993A-EE21FDB1CD41}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{0A39216B-1931-8546-AD2C-B34374A30B4E}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{2C900A51-3FBD-3D49-8EDF-CE74FAC4DA4E}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{1E03AC8D-B0E5-384E-944E-430CEFF96620}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{0DDF0C52-6255-8F4B-A7E2-C33A3DC8A8F7}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{5852DC38-4587-B34A-BA72-EF448D020627}"/>
-    <hyperlink ref="C10" r:id="rId15" xr:uid="{DCF91A37-85A5-CE44-965C-08DD13301896}"/>
-    <hyperlink ref="C15" r:id="rId16" xr:uid="{052E037F-B36A-9149-8AE8-A6AC8A2A7356}"/>
-    <hyperlink ref="C4" r:id="rId17" xr:uid="{59534D3C-B71E-7145-B7F1-BD695B0E307A}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{70991444-228F-2848-ACFD-EA6E02CD8D5B}"/>
+    <hyperlink ref="C24" r:id="rId6" xr:uid="{E5F8CB27-28E6-834F-96AA-F7401DD51856}"/>
+    <hyperlink ref="C26" r:id="rId7" xr:uid="{58985920-5A31-EA42-A7F7-3B0556956FB3}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{78A183EA-3276-324C-A11F-E89F53E430CD}"/>
+    <hyperlink ref="C25" r:id="rId9" xr:uid="{F9C6EDB6-1649-6A45-993A-EE21FDB1CD41}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{0A39216B-1931-8546-AD2C-B34374A30B4E}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{2C900A51-3FBD-3D49-8EDF-CE74FAC4DA4E}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{1E03AC8D-B0E5-384E-944E-430CEFF96620}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{0DDF0C52-6255-8F4B-A7E2-C33A3DC8A8F7}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{5852DC38-4587-B34A-BA72-EF448D020627}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{DCF91A37-85A5-CE44-965C-08DD13301896}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{052E037F-B36A-9149-8AE8-A6AC8A2A7356}"/>
+    <hyperlink ref="C11" r:id="rId17" xr:uid="{59534D3C-B71E-7145-B7F1-BD695B0E307A}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{70991444-228F-2848-ACFD-EA6E02CD8D5B}"/>
+    <hyperlink ref="C2" r:id="rId19" xr:uid="{4F7F5CDB-C171-BA42-AF42-EED853E74730}"/>
+    <hyperlink ref="C3" r:id="rId20" xr:uid="{4EF6152B-B43E-9D40-82BC-E9FDE9CAEF1C}"/>
+    <hyperlink ref="C4" r:id="rId21" xr:uid="{2891B93E-19A3-5247-AED9-58ADE3752942}"/>
+    <hyperlink ref="C15" r:id="rId22" xr:uid="{DD7BB1D0-03D4-BD45-8A5E-6F8D1127444F}"/>
+    <hyperlink ref="C16" r:id="rId23" xr:uid="{41F52334-992E-8641-8A87-E4ABC8309E6A}"/>
+    <hyperlink ref="C21" r:id="rId24" xr:uid="{0D432A45-4835-FA4B-8B9A-B1DF6E71ED77}"/>
+    <hyperlink ref="C6" r:id="rId25" xr:uid="{6B7E3206-2894-5340-A7B9-457EE12D1D51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/Data/ModuleKey.xlsx
+++ b/_site/Data/ModuleKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF81366B-CD35-FD4D-85BE-9C3C848C9DEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955824B6-B48D-E84D-A5A8-6F9A4985A4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
+    <workbookView xWindow="7540" yWindow="820" windowWidth="28800" windowHeight="17540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Module</t>
   </si>
@@ -186,9 +186,6 @@
     <t>https://r3questionbank.netlify.app/stimulusmodule</t>
   </si>
   <si>
-    <t>9, 11, 16, 29, 55</t>
-  </si>
-  <si>
     <t>Other Hardships</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>53, 55, 57, 61</t>
   </si>
   <si>
-    <t>57, 59</t>
-  </si>
-  <si>
     <t>Economic stability</t>
   </si>
   <si>
@@ -285,30 +279,15 @@
     <t>25, 45, 55</t>
   </si>
   <si>
-    <t xml:space="preserve">19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61 </t>
-  </si>
-  <si>
-    <t>25, 27, 31, 35, 39, 47, 51, 55, 59</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61</t>
-  </si>
-  <si>
     <t>33, 37, 39</t>
   </si>
   <si>
     <t>25, 33, 37, 41, 45, 49, 53, 57</t>
   </si>
   <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59</t>
-  </si>
-  <si>
     <t>21, 23</t>
   </si>
   <si>
-    <t>51, 61</t>
-  </si>
-  <si>
     <t>15, 19, 21, 23, 35, 43, 53, 55, 59</t>
   </si>
   <si>
@@ -318,10 +297,34 @@
     <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59</t>
   </si>
   <si>
-    <t>33, 35, 41, 43, 45, 49, 53, 57, 61</t>
-  </si>
-  <si>
     <t>3 to 21, 23, 25, 27, 33, 37, 45, 47, 49, 53</t>
+  </si>
+  <si>
+    <t>9, 11, 16, 29, 55, 65</t>
+  </si>
+  <si>
+    <t>51, 61, 63</t>
+  </si>
+  <si>
+    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63</t>
+  </si>
+  <si>
+    <t>57, 59, 63</t>
+  </si>
+  <si>
+    <t>61, 63, 65</t>
+  </si>
+  <si>
+    <t>33, 35, 41, 43, 45, 49, 53, 57, 61, 65</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65</t>
   </si>
 </sst>
 </file>
@@ -371,64 +374,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -444,18 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -466,7 +405,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -786,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DFD680-50E8-144D-8190-32B641366355}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,373 +746,373 @@
     <col min="1" max="1" width="33.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="10">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D18" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="10">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/ModuleKey.xlsx
+++ b/_site/Data/ModuleKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyamishra/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955824B6-B48D-E84D-A5A8-6F9A4985A4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE55FC-CC40-5F45-9B1A-75427D8F4A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="820" windowWidth="28800" windowHeight="17540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
+    <workbookView xWindow="3700" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,9 +294,6 @@
     <t>43, 45, 51, 57</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59</t>
-  </si>
-  <si>
     <t>3 to 21, 23, 25, 27, 33, 37, 45, 47, 49, 53</t>
   </si>
   <si>
@@ -306,25 +303,28 @@
     <t>51, 61, 63</t>
   </si>
   <si>
-    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63</t>
-  </si>
-  <si>
     <t>57, 59, 63</t>
   </si>
   <si>
-    <t>61, 63, 65</t>
-  </si>
-  <si>
-    <t>33, 35, 41, 43, 45, 49, 53, 57, 61, 65</t>
-  </si>
-  <si>
     <t>19, 21, 23, 25, 27, 31, 33, 35, 39, 41, 45, 49, 53, 57, 61, 65</t>
   </si>
   <si>
     <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65</t>
+  </si>
+  <si>
+    <t>33, 35, 41, 43, 45, 49, 53, 57, 61, 65, 75</t>
+  </si>
+  <si>
+    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63, 67, 71, 75</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 71,75</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 31, 33, 35, 37, 39, 43, 47, 51, 55, 59, 63,67, 71,75</t>
+  </si>
+  <si>
+    <t>61, 63, 65, 67, 69, 71, 73, 75</t>
   </si>
 </sst>
 </file>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DFD680-50E8-144D-8190-32B641366355}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,7 +778,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
@@ -789,7 +789,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -888,7 +888,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -944,7 +944,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -989,7 +989,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -1042,7 +1042,7 @@
         <v>76</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1073,7 +1073,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1098,7 +1098,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>32</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
